--- a/Financial Statements/df_SF.xlsx
+++ b/Financial Statements/df_SF.xlsx
@@ -1,98 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/zorinan_kasilag_springfertility_com/Documents/Documents/Python/Financial Statements/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF87305965DF434D91523088B35299F676" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F9B267-2A8C-41E6-87D9-61871A2CB9D2}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="7785" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Month 1</t>
-  </si>
-  <si>
-    <t>Month 2</t>
-  </si>
-  <si>
-    <t>Month 3</t>
-  </si>
-  <si>
-    <t>Month 4</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Self-pay revenue</t>
-  </si>
-  <si>
-    <t>Commercial Insurance revenue</t>
-  </si>
-  <si>
-    <t>Progyny &amp; Stork revenue</t>
-  </si>
-  <si>
-    <t>Storage revenue</t>
-  </si>
-  <si>
-    <t>Medication</t>
-  </si>
-  <si>
-    <t>Nest</t>
-  </si>
-  <si>
-    <t>Other Revenue</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -431,173 +420,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>-3479746.830000001</v>
-      </c>
-      <c r="C2">
-        <v>-3615980.3499999992</v>
-      </c>
-      <c r="D2">
-        <v>-3306685.459999999</v>
-      </c>
-      <c r="E2">
-        <v>-3879008.06</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>-674013.64999999991</v>
-      </c>
-      <c r="C3">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Month 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Self-pay revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-3251883.66</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3356793.169999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3002393.15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3236492.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Commercial Insurance revenue</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-686994.8300000001</v>
+      </c>
+      <c r="C3" t="n">
         <v>-160801.41</v>
       </c>
-      <c r="D3">
-        <v>-415486.73</v>
-      </c>
-      <c r="E3">
-        <v>-359916.25</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+      <c r="D3" t="n">
+        <v>-363076.6400000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-355422.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Progyny &amp; Stork revenue</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-1993212.01</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>-2008440.76</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>-2023615.23</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>-2144792.63</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Storage revenue</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-147358.75</v>
       </c>
-      <c r="C5">
-        <v>-228872.08</v>
-      </c>
-      <c r="D5">
-        <v>-231746.92</v>
-      </c>
-      <c r="E5">
-        <v>-165762.92000000001</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>94268.26</v>
-      </c>
-      <c r="C6">
-        <v>324971.75000000012</v>
-      </c>
-      <c r="D6">
-        <v>285933.25</v>
-      </c>
-      <c r="E6">
-        <v>260334.28999999989</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-207517.92</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-165762.92</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>42481.62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>155342.14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>119576.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>126894.89</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nest</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Other Revenue</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Financial Statements/df_SF.xlsx
+++ b/Financial Statements/df_SF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,155 +468,679 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-3251883.66</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3356793.169999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-3002393.15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-3236492.83</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-686994.8300000001</v>
+        <v>-3251883.66</v>
       </c>
       <c r="C3" t="n">
-        <v>-160801.41</v>
+        <v>-3356793.169999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-363076.6400000001</v>
+        <v>-3002393.15</v>
       </c>
       <c r="E3" t="n">
-        <v>-355422.81</v>
+        <v>-3236492.83</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-12847562.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1993212.01</v>
+        <v>-686994.8300000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-2008440.76</v>
+        <v>-160801.41</v>
       </c>
       <c r="D4" t="n">
-        <v>-2023615.23</v>
+        <v>-363076.6400000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-2144792.63</v>
+        <v>-355422.81</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-1566295.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-147358.75</v>
+        <v>-1993212.01</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-2008440.76</v>
       </c>
       <c r="D5" t="n">
-        <v>-207517.92</v>
+        <v>-2023615.23</v>
       </c>
       <c r="E5" t="n">
-        <v>-165762.92</v>
+        <v>-2144792.63</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-8170060.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42481.62</v>
+        <v>-147358.75</v>
       </c>
       <c r="C6" t="n">
-        <v>155342.14</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>119576.14</v>
+        <v>-207517.92</v>
       </c>
       <c r="E6" t="n">
-        <v>126894.89</v>
+        <v>-165762.92</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-520639.5900000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>42481.62</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>155342.14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>119576.14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>126894.89</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>444294.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Nest</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Other Revenue</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MD payroll</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>273780.16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>376512.56</v>
+      </c>
+      <c r="D11" t="n">
+        <v>526425.01</v>
+      </c>
+      <c r="E11" t="n">
+        <v>501048.29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1677766.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Clinical payroll</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>332319.42</v>
+      </c>
+      <c r="C12" t="n">
+        <v>337061.59</v>
+      </c>
+      <c r="D12" t="n">
+        <v>249730.38</v>
+      </c>
+      <c r="E12" t="n">
+        <v>271636.76</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1190748.15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lab payroll</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>249230.42</v>
+      </c>
+      <c r="C13" t="n">
+        <v>182315.09</v>
+      </c>
+      <c r="D13" t="n">
+        <v>147149.22</v>
+      </c>
+      <c r="E13" t="n">
+        <v>200550.16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>779244.89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASC payroll</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>55773.75000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>52212.56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56335.24000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33094.71</v>
+      </c>
+      <c r="F14" t="n">
+        <v>197416.26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Supplies</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76796.12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64762.21999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>95435.49000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>98577.17000000007</v>
+      </c>
+      <c r="F15" t="n">
+        <v>335571.0000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>42481.62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>155342.14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>119576.14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>126894.89</v>
+      </c>
+      <c r="F16" t="n">
+        <v>444294.79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Medical services</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89418.01999999993</v>
+      </c>
+      <c r="C17" t="n">
+        <v>192713.2700000013</v>
+      </c>
+      <c r="D17" t="n">
+        <v>116421.0199999998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>185510.1000000008</v>
+      </c>
+      <c r="F17" t="n">
+        <v>584062.4100000018</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Payroll</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>92430.64999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>110124.48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>112890.19</v>
+      </c>
+      <c r="E19" t="n">
+        <v>122875.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>438320.72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3208.62</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1790.84</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7922.469999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6872.65</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19794.58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Professional fees</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1886.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3575</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7434.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>51996.85</v>
+      </c>
+      <c r="C22" t="n">
+        <v>57053.97</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43796.86</v>
+      </c>
+      <c r="E22" t="n">
+        <v>51996.86</v>
+      </c>
+      <c r="F22" t="n">
+        <v>204844.54</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>78084.17999999993</v>
+      </c>
+      <c r="C23" t="n">
+        <v>85115.14000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50776.63999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70158.34000000004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>284134.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10583.04</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11468.13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21988.62</v>
+      </c>
+      <c r="E24" t="n">
+        <v>31389.33</v>
+      </c>
+      <c r="F24" t="n">
+        <v>75429.12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Employee related expenses</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4320.389999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15875.33</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6150.930000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6963.46</v>
+      </c>
+      <c r="F25" t="n">
+        <v>33310.11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Taxes &amp; Regulatory</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bank charges</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3588.49</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1921.08</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2059.95</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4870.02</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12439.54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Non-operating income/(expense)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-4510.58</v>
+      </c>
+      <c r="C30" t="n">
+        <v>489.42</v>
+      </c>
+      <c r="D30" t="n">
+        <v>489.42</v>
+      </c>
+      <c r="E30" t="n">
+        <v>489.42</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3042.32</v>
       </c>
     </row>
   </sheetData>

--- a/Financial Statements/df_SF.xlsx
+++ b/Financial Statements/df_SF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/zorinan_kasilag_springfertility_com/Documents/Documents/Python/Financial Statements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF8730DF1DFB593E11593588F261A3ED25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8052E10E-8BE0-472E-BC93-5EBEB34B85DA}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF8770D3046BBA2B11593E18767283D23B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5C34B1-E64A-44DC-A274-0A7752E6F08C}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="5205" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="4860" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Account</t>
   </si>
@@ -124,10 +124,16 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Monthly Total OpEx</t>
+  </si>
+  <si>
     <t>Non OpEx</t>
   </si>
   <si>
     <t>Non-operating income/(expense)</t>
+  </si>
+  <si>
+    <t>Monthly Total Non OpEx</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,39 +1113,79 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
+      <c r="B31">
+        <v>246185.21999999991</v>
+      </c>
+      <c r="C31">
+        <v>283348.96999999997</v>
+      </c>
+      <c r="D31">
+        <v>247472.06</v>
+      </c>
+      <c r="E31">
+        <v>298701.06000000011</v>
+      </c>
+      <c r="F31">
+        <v>1075707.31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
         <v>-4510.58</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>489.42</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>489.42</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>489.42</v>
       </c>
-      <c r="F32">
+      <c r="F33">
+        <v>-3042.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>-4510.58</v>
+      </c>
+      <c r="C34">
+        <v>489.42</v>
+      </c>
+      <c r="D34">
+        <v>489.42</v>
+      </c>
+      <c r="E34">
+        <v>489.42</v>
+      </c>
+      <c r="F34">
         <v>-3042.32</v>
       </c>
     </row>

--- a/Financial Statements/df_SF.xlsx
+++ b/Financial Statements/df_SF.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/zorinan_kasilag_springfertility_com/Documents/Documents/Python/Financial Statements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF8770D3046BBA2B11593E18767283D23B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5C34B1-E64A-44DC-A274-0A7752E6F08C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_1871D6AE87105661DF5A3B11595ED87656CD3B76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8B6C689-BAC3-4DB6-A134-95689C3C4970}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="4860" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="4770" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Account</t>
   </si>
@@ -91,6 +102,9 @@
     <t>Monthly Total COGS</t>
   </si>
   <si>
+    <t>Monthly GROSS MARGIN</t>
+  </si>
+  <si>
     <t>OpEx</t>
   </si>
   <si>
@@ -134,6 +148,9 @@
   </si>
   <si>
     <t>Monthly Total Non OpEx</t>
+  </si>
+  <si>
+    <t>Monthly Net Income</t>
   </si>
 </sst>
 </file>
@@ -496,17 +513,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,149 +545,129 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>-3251883.66</v>
-      </c>
-      <c r="C3">
-        <v>-3356793.169999999</v>
-      </c>
-      <c r="D3">
-        <v>-3002393.15</v>
-      </c>
-      <c r="E3">
-        <v>-3236492.83</v>
-      </c>
-      <c r="F3">
-        <v>-12847562.810000001</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-686994.83000000007</v>
+        <v>-3251883.66</v>
       </c>
       <c r="C4">
-        <v>-160801.41</v>
+        <v>-3356793.169999999</v>
       </c>
       <c r="D4">
-        <v>-363076.64000000007</v>
+        <v>-3002393.15</v>
       </c>
       <c r="E4">
-        <v>-355422.81</v>
+        <v>-3236492.83</v>
       </c>
       <c r="F4">
-        <v>-1566295.69</v>
+        <v>-12847562.810000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>-1993212.01</v>
+        <v>-686994.83000000007</v>
       </c>
       <c r="C5">
-        <v>-2008440.76</v>
+        <v>-160801.41</v>
       </c>
       <c r="D5">
-        <v>-2023615.23</v>
+        <v>-363076.64000000007</v>
       </c>
       <c r="E5">
-        <v>-2144792.63</v>
+        <v>-355422.81</v>
       </c>
       <c r="F5">
-        <v>-8170060.6299999999</v>
+        <v>-1566295.69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-147358.75</v>
+        <v>-1993212.01</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-2008440.76</v>
       </c>
       <c r="D6">
-        <v>-207517.92</v>
+        <v>-2023615.23</v>
       </c>
       <c r="E6">
-        <v>-165762.92000000001</v>
+        <v>-2144792.63</v>
       </c>
       <c r="F6">
-        <v>-520639.59000000008</v>
+        <v>-8170060.6299999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>42481.62</v>
+        <v>-147358.75</v>
       </c>
       <c r="C7">
-        <v>155342.14000000001</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>119576.14</v>
+        <v>-207517.92</v>
       </c>
       <c r="E7">
-        <v>126894.89</v>
+        <v>-165762.92000000001</v>
       </c>
       <c r="F7">
-        <v>444294.79</v>
+        <v>-520639.59000000008</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>42481.62</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>155342.14000000001</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>119576.14</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>126894.89</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>444294.79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -691,502 +687,562 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-6036967.6299999999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-5370693.1999999993</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-5477026.7999999998</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-5775576.2999999998</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-22660263.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>273780.15999999997</v>
-      </c>
-      <c r="C12">
-        <v>376512.56</v>
-      </c>
-      <c r="D12">
-        <v>526425.01</v>
-      </c>
-      <c r="E12">
-        <v>501048.29</v>
-      </c>
-      <c r="F12">
-        <v>1677766.02</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>-6036967.6299999999</v>
+      </c>
+      <c r="C11">
+        <v>-5370693.1999999993</v>
+      </c>
+      <c r="D11">
+        <v>-5477026.7999999998</v>
+      </c>
+      <c r="E11">
+        <v>-5775576.2999999998</v>
+      </c>
+      <c r="F11">
+        <v>-22660263.93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>332319.42</v>
-      </c>
-      <c r="C13">
-        <v>337061.59</v>
-      </c>
-      <c r="D13">
-        <v>249730.38</v>
-      </c>
-      <c r="E13">
-        <v>271636.76</v>
-      </c>
-      <c r="F13">
-        <v>1190748.1499999999</v>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>249230.42</v>
+        <v>273780.15999999997</v>
       </c>
       <c r="C14">
-        <v>182315.09</v>
+        <v>376512.56</v>
       </c>
       <c r="D14">
-        <v>147149.22</v>
+        <v>526425.01</v>
       </c>
       <c r="E14">
-        <v>200550.16</v>
+        <v>501048.29</v>
       </c>
       <c r="F14">
-        <v>779244.89</v>
+        <v>1677766.02</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>55773.750000000007</v>
+        <v>332319.42</v>
       </c>
       <c r="C15">
-        <v>52212.56</v>
+        <v>337061.59</v>
       </c>
       <c r="D15">
-        <v>56335.240000000013</v>
+        <v>249730.38</v>
       </c>
       <c r="E15">
-        <v>33094.71</v>
+        <v>271636.76</v>
       </c>
       <c r="F15">
-        <v>197416.26</v>
+        <v>1190748.1499999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>76796.12</v>
+        <v>249230.42</v>
       </c>
       <c r="C16">
-        <v>64762.219999999987</v>
+        <v>182315.09</v>
       </c>
       <c r="D16">
-        <v>95435.49</v>
+        <v>147149.22</v>
       </c>
       <c r="E16">
-        <v>98577.170000000071</v>
+        <v>200550.16</v>
       </c>
       <c r="F16">
-        <v>335571.00000000012</v>
+        <v>779244.89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>42481.62</v>
+        <v>55773.750000000007</v>
       </c>
       <c r="C17">
-        <v>155342.14000000001</v>
+        <v>52212.56</v>
       </c>
       <c r="D17">
-        <v>119576.14</v>
+        <v>56335.240000000013</v>
       </c>
       <c r="E17">
-        <v>126894.89</v>
+        <v>33094.71</v>
       </c>
       <c r="F17">
-        <v>444294.79</v>
+        <v>197416.26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>89418.019999999931</v>
+        <v>76796.12</v>
       </c>
       <c r="C18">
-        <v>192713.2700000013</v>
+        <v>64762.219999999987</v>
       </c>
       <c r="D18">
-        <v>116421.0199999998</v>
+        <v>95435.49</v>
       </c>
       <c r="E18">
-        <v>185510.10000000079</v>
+        <v>98577.170000000071</v>
       </c>
       <c r="F18">
-        <v>584062.41000000178</v>
+        <v>335571.00000000012</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>1119799.51</v>
+        <v>42481.62</v>
       </c>
       <c r="C19">
-        <v>1360919.4300000011</v>
+        <v>155342.14000000001</v>
       </c>
       <c r="D19">
-        <v>1311072.5</v>
+        <v>119576.14</v>
       </c>
       <c r="E19">
-        <v>1417312.080000001</v>
+        <v>126894.89</v>
       </c>
       <c r="F19">
-        <v>5209103.5200000014</v>
+        <v>444294.79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>89418.019999999931</v>
+      </c>
+      <c r="C20">
+        <v>192713.2700000013</v>
+      </c>
+      <c r="D20">
+        <v>116421.0199999998</v>
+      </c>
+      <c r="E20">
+        <v>185510.10000000079</v>
+      </c>
+      <c r="F20">
+        <v>584062.41000000178</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>92430.65</v>
+        <v>1119799.51</v>
       </c>
       <c r="C21">
-        <v>110124.48</v>
+        <v>1360919.4300000011</v>
       </c>
       <c r="D21">
-        <v>112890.19</v>
+        <v>1311072.5</v>
       </c>
       <c r="E21">
-        <v>122875.4</v>
+        <v>1417312.080000001</v>
       </c>
       <c r="F21">
-        <v>438320.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>3208.62</v>
-      </c>
-      <c r="C22">
-        <v>1790.84</v>
-      </c>
-      <c r="D22">
-        <v>7922.4699999999993</v>
-      </c>
-      <c r="E22">
-        <v>6872.65</v>
-      </c>
-      <c r="F22">
-        <v>19794.580000000002</v>
+        <v>5209103.5200000014</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>1973</v>
+        <v>-7156767.1399999997</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-6731612.6300000008</v>
       </c>
       <c r="D23">
-        <v>1886.4</v>
+        <v>-6788099.2999999998</v>
       </c>
       <c r="E23">
-        <v>3575</v>
+        <v>-7192888.3800000008</v>
       </c>
       <c r="F23">
-        <v>7434.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>51996.85</v>
-      </c>
-      <c r="C24">
-        <v>57053.97</v>
-      </c>
-      <c r="D24">
-        <v>43796.86</v>
-      </c>
-      <c r="E24">
-        <v>51996.86</v>
-      </c>
-      <c r="F24">
-        <v>204844.54</v>
+        <v>-27869367.449999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>78084.179999999935</v>
-      </c>
-      <c r="C25">
-        <v>85115.140000000014</v>
-      </c>
-      <c r="D25">
-        <v>50776.639999999992</v>
-      </c>
-      <c r="E25">
-        <v>70158.34000000004</v>
-      </c>
-      <c r="F25">
-        <v>284134.3</v>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>10583.04</v>
+        <v>92430.65</v>
       </c>
       <c r="C26">
-        <v>11468.13</v>
+        <v>110124.48</v>
       </c>
       <c r="D26">
-        <v>21988.62</v>
+        <v>112890.19</v>
       </c>
       <c r="E26">
-        <v>31389.33</v>
+        <v>122875.4</v>
       </c>
       <c r="F26">
-        <v>75429.119999999995</v>
+        <v>438320.72</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>4320.3899999999994</v>
+        <v>3208.62</v>
       </c>
       <c r="C27">
-        <v>15875.33</v>
+        <v>1790.84</v>
       </c>
       <c r="D27">
-        <v>6150.9300000000012</v>
+        <v>7922.4699999999993</v>
       </c>
       <c r="E27">
-        <v>6963.46</v>
+        <v>6872.65</v>
       </c>
       <c r="F27">
-        <v>33310.11</v>
+        <v>19794.580000000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1973</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1886.4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3575</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>7434.4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>3588.49</v>
+        <v>51996.85</v>
       </c>
       <c r="C29">
-        <v>1921.08</v>
+        <v>57053.97</v>
       </c>
       <c r="D29">
-        <v>2059.9499999999998</v>
+        <v>43796.86</v>
       </c>
       <c r="E29">
-        <v>4870.0200000000004</v>
+        <v>51996.86</v>
       </c>
       <c r="F29">
-        <v>12439.54</v>
+        <v>204844.54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>78084.179999999935</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>85115.140000000014</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>50776.639999999992</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>70158.34000000004</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>284134.3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>246185.21999999991</v>
+        <v>10583.04</v>
       </c>
       <c r="C31">
-        <v>283348.96999999997</v>
+        <v>11468.13</v>
       </c>
       <c r="D31">
-        <v>247472.06</v>
+        <v>21988.62</v>
       </c>
       <c r="E31">
-        <v>298701.06000000011</v>
+        <v>31389.33</v>
       </c>
       <c r="F31">
-        <v>1075707.31</v>
+        <v>75429.119999999995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4320.3899999999994</v>
+      </c>
+      <c r="C32">
+        <v>15875.33</v>
+      </c>
+      <c r="D32">
+        <v>6150.9300000000012</v>
+      </c>
+      <c r="E32">
+        <v>6963.46</v>
+      </c>
+      <c r="F32">
+        <v>33310.11</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>-4510.58</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>489.42</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>489.42</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>489.42</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>-3042.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3588.49</v>
+      </c>
+      <c r="C34">
+        <v>1921.08</v>
+      </c>
+      <c r="D34">
+        <v>2059.9499999999998</v>
+      </c>
+      <c r="E34">
+        <v>4870.0200000000004</v>
+      </c>
+      <c r="F34">
+        <v>12439.54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>246185.21999999991</v>
+      </c>
+      <c r="C36">
+        <v>283348.96999999997</v>
+      </c>
+      <c r="D36">
+        <v>247472.06</v>
+      </c>
+      <c r="E36">
+        <v>298701.06000000011</v>
+      </c>
+      <c r="F36">
+        <v>1075707.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>-4510.58</v>
       </c>
-      <c r="C34">
+      <c r="C39">
         <v>489.42</v>
       </c>
-      <c r="D34">
+      <c r="D39">
         <v>489.42</v>
       </c>
-      <c r="E34">
+      <c r="E39">
         <v>489.42</v>
       </c>
-      <c r="F34">
+      <c r="F39">
         <v>-3042.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-4510.58</v>
+      </c>
+      <c r="C40">
+        <v>489.42</v>
+      </c>
+      <c r="D40">
+        <v>489.42</v>
+      </c>
+      <c r="E40">
+        <v>489.42</v>
+      </c>
+      <c r="F40">
+        <v>-3042.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>-7407462.9399999985</v>
+      </c>
+      <c r="C42">
+        <v>-7014472.1800000006</v>
+      </c>
+      <c r="D42">
+        <v>-7035081.9399999985</v>
+      </c>
+      <c r="E42">
+        <v>-7491100.0200000014</v>
+      </c>
+      <c r="F42">
+        <v>-28948117.079999998</v>
       </c>
     </row>
   </sheetData>
